--- a/Testdata.xlsx
+++ b/Testdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Username1</t>
   </si>
@@ -462,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,6 +635,11 @@
     </row>
     <row r="51">
       <c r="D51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="F106" t="s">
         <v>39</v>
       </c>
     </row>
